--- a/output/rat/RAT_check_2_solution_False_embeddings.xlsx
+++ b/output/rat/RAT_check_2_solution_False_embeddings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,15 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>top_embedding</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>relation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Accuracy</t>
         </is>
@@ -499,10 +504,15 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>cheese</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>cheese - derived_from</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -533,10 +543,15 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>cheese</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>food - derived_from | cheese - derived_from</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -567,10 +582,15 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>cheese</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>cheese - derived_from</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -593,6 +613,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -621,8 +642,13 @@
           <t xml:space="preserve">cream - heavy: 0.321  |  cream - light: 0.351  |  cream - heavy: 0.321  |  water - heavy: 0.414  |  water - light: 0.454  |  water - heavy: 0.414  |  </t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -645,6 +671,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -675,10 +702,15 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>sore</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>sore - derived_from</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -701,6 +733,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -723,6 +756,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,6 +779,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -767,6 +802,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -795,8 +831,13 @@
           <t xml:space="preserve">life - of: 0.475  |  row - of: 0.236  |  </t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -819,6 +860,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -841,6 +883,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -863,6 +906,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -885,6 +929,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -913,8 +958,13 @@
           <t xml:space="preserve">duck - s: 0.182  |  duck - one's: no embedding for one's  |  duck - to: 0.165  |  duck - like: 0.348  |  duck - australian: 0.25  |  dollar - s: 0.214  |  dollar - one's: no embedding for one's  |  dollar - to: 0.274  |  dollar - like: 0.296  |  dollar - australian: 0.337  |  </t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -937,6 +987,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -959,6 +1010,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -981,6 +1033,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1003,6 +1056,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1025,6 +1079,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1047,6 +1102,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1069,6 +1125,7 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1091,6 +1148,7 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1121,10 +1179,15 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
+          <t>soda</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>soda - related_to | soda - derived_from</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1147,6 +1210,7 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1169,6 +1233,7 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1191,6 +1256,7 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1213,6 +1279,7 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1235,6 +1302,7 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1257,6 +1325,7 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1348,7 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1301,6 +1371,7 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1323,6 +1394,7 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1345,6 +1417,7 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1373,8 +1446,13 @@
           <t xml:space="preserve">cracker - ass: 0.258  |  fly - ass: 0.235  |  </t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>ass</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1397,6 +1475,7 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1419,6 +1498,7 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1441,6 +1521,7 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1463,6 +1544,7 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1485,6 +1567,7 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1515,10 +1598,15 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
+          <t>sugar</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
           <t>sugar - derived_from</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1549,10 +1637,15 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
+          <t>sugar</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
           <t>sugar - derived_from</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1583,10 +1676,15 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
+          <t>sugar</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
           <t>of - derived_from | sugar - derived_from</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1615,8 +1713,13 @@
           <t xml:space="preserve">dream - on: 0.229  |  dream - ing: 0.215  |  break - on: 0.327  |  break - ing: 0.256  |  </t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1645,8 +1748,13 @@
           <t xml:space="preserve">dream - up: 0.44  |  dream - on: 0.229  |  light - up: 0.404  |  light - on: 0.319  |  </t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1675,8 +1783,13 @@
           <t xml:space="preserve">break - up: 0.602  |  break - ing: 0.256  |  light - up: 0.404  |  light - ing: 0.166  |  </t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1699,6 +1812,7 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1721,6 +1835,7 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1749,8 +1864,13 @@
           <t xml:space="preserve">mine - salt: 0.323  |  rush - salt: 0.169  |  </t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>salt</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1781,10 +1901,15 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
+          <t>party</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
           <t>party - derived_from</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1807,6 +1932,7 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1829,6 +1955,7 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1851,6 +1978,7 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1879,8 +2007,13 @@
           <t xml:space="preserve">measure - to: 0.441  |  video - to: 0.298  |  </t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1903,6 +2036,7 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1925,6 +2059,7 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1947,6 +2082,7 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1975,8 +2111,13 @@
           <t xml:space="preserve">district - of: 0.229  |  house - of: 0.358  |  </t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1999,6 +2140,7 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2021,6 +2163,7 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2043,6 +2186,7 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2065,6 +2209,7 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2087,6 +2232,7 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2109,6 +2255,7 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2137,8 +2284,13 @@
           <t xml:space="preserve">piece - of: 0.397  |  piece - s: 0.239  |  piece - of: 0.397  |  piece - and: 0.301  |  mind - of: 0.419  |  mind - s: 0.306  |  mind - of: 0.419  |  mind - and: 0.449  |  </t>
         </is>
       </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2161,6 +2313,7 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2183,6 +2336,7 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2205,6 +2359,7 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2227,6 +2382,7 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2249,6 +2405,7 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2277,8 +2434,13 @@
           <t xml:space="preserve">river - down: 0.429  |  river - blue: 0.324  |  note - down: 0.354  |  note - blue: 0.222  |  </t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2307,8 +2469,13 @@
           <t xml:space="preserve">river - s: 0.154  |  river - of: 0.251  |  account - s: 0.258  |  account - of: 0.306  |  </t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2331,6 +2498,7 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2353,6 +2521,7 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2381,8 +2550,13 @@
           <t xml:space="preserve">print - foot: 0.151  |  bird - foot: 0.257  |  </t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>foot</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2411,8 +2585,13 @@
           <t xml:space="preserve">berry - one: 0.17  |  berry - sea: 0.18  |  bird - one: 0.364  |  bird - sea: 0.422  |  </t>
         </is>
       </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>sea</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2435,6 +2614,7 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2463,8 +2643,13 @@
           <t xml:space="preserve">pie - pork: 0.557  |  belly - pork: 0.455  |  </t>
         </is>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>pork</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2493,8 +2678,13 @@
           <t xml:space="preserve">luck - out: 0.453  |  belly - out: 0.336  |  </t>
         </is>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2525,10 +2715,15 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
+          <t>blind</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
           <t>blind - derived_from</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2551,6 +2746,7 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2573,6 +2769,7 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2595,6 +2792,7 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2617,6 +2815,7 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2645,8 +2844,13 @@
           <t xml:space="preserve">hand - out: 0.576  |  hand - towel: 0.518  |  hand - side: 0.493  |  dish - out: 0.294  |  dish - towel: 0.414  |  dish - side: 0.306  |  </t>
         </is>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>towel</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2669,6 +2873,7 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2691,6 +2896,7 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2713,6 +2919,7 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2735,6 +2942,7 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2757,6 +2965,7 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2785,8 +2994,13 @@
           <t xml:space="preserve">rack - ed: 0.077  |  tail - ed: 0.056  |  </t>
         </is>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>ed</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2809,6 +3023,7 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2837,8 +3052,13 @@
           <t xml:space="preserve">stick - and: 0.326  |  stick - in: 0.238  |  stick - s: 0.161  |  point - and: 0.384  |  point - in: 0.348  |  point - s: 0.316  |  </t>
         </is>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2861,6 +3081,7 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2883,6 +3104,7 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2905,6 +3127,7 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2927,6 +3150,7 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2955,8 +3179,13 @@
           <t xml:space="preserve">fox - kit: 0.234  |  man - kit: 0.105  |  </t>
         </is>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>kit</t>
+        </is>
+      </c>
       <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2979,6 +3208,7 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3001,6 +3231,7 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3023,6 +3254,7 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3045,6 +3277,7 @@
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3067,6 +3300,7 @@
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3089,6 +3323,7 @@
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3117,8 +3352,13 @@
           <t xml:space="preserve">dust - gold: 0.305  |  dust - out: 0.358  |  fish - gold: 0.26  |  fish - out: 0.324  |  </t>
         </is>
       </c>
-      <c r="G108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
       <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3141,6 +3381,7 @@
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3163,6 +3404,7 @@
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3191,8 +3433,13 @@
           <t xml:space="preserve">light - up: 0.404  |  light - to: 0.363  |  light - s: 0.21  |  stick - up: 0.533  |  stick - to: 0.428  |  stick - s: 0.161  |  </t>
         </is>
       </c>
-      <c r="G111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
       <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3215,6 +3462,7 @@
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3237,6 +3485,7 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3259,6 +3508,7 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3281,6 +3531,7 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3303,6 +3554,7 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3325,6 +3577,7 @@
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3347,6 +3600,7 @@
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3369,6 +3623,7 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3391,6 +3646,7 @@
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3413,6 +3669,7 @@
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3443,10 +3700,15 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
+          <t>salt</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
           <t>salt - is_a</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3477,10 +3739,15 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
+          <t>salt</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
           <t>salt - is_a</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3511,10 +3778,15 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
+          <t>salt</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
           <t>salt - derived_from | salt - is_a</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3537,6 +3809,7 @@
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3565,8 +3838,13 @@
           <t xml:space="preserve">palm - of: 0.181  |  house - of: 0.358  |  </t>
         </is>
       </c>
-      <c r="G126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
       <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3589,6 +3867,7 @@
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3617,8 +3896,13 @@
           <t xml:space="preserve">basket - of: 0.181  |  eight - of: 0.375  |  </t>
         </is>
       </c>
-      <c r="G128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
       <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3647,8 +3931,13 @@
           <t xml:space="preserve">basket - of: 0.181  |  basket - maker: 0.25  |  snow - of: 0.27  |  snow - maker: 0.125  |  </t>
         </is>
       </c>
-      <c r="G129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
       <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3677,8 +3966,13 @@
           <t xml:space="preserve">eight - of: 0.375  |  eight - day: 0.415  |  eight - figure: 0.306  |  snow - of: 0.27  |  snow - day: 0.411  |  snow - figure: 0.234  |  </t>
         </is>
       </c>
-      <c r="G130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
       <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3707,8 +4001,13 @@
           <t xml:space="preserve">wheel - on: 0.26  |  wheel - s: 0.177  |  wheel - off: 0.304  |  hand - on: 0.418  |  hand - s: 0.289  |  hand - off: 0.51  |  </t>
         </is>
       </c>
-      <c r="G131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
       <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3731,6 +4030,7 @@
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3753,6 +4053,7 @@
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3781,8 +4082,13 @@
           <t xml:space="preserve">right - footed: 0.172  |  right - animal: 0.255  |  cat - footed: 0.208  |  cat - animal: 0.626  |  </t>
         </is>
       </c>
-      <c r="G134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>animal</t>
+        </is>
+      </c>
       <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3813,10 +4119,15 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
+          <t>copy</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
           <t>copy - related_to</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3845,8 +4156,13 @@
           <t xml:space="preserve">cat - black: 0.315  |  carbon - black: 0.303  |  </t>
         </is>
       </c>
-      <c r="G136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
       <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3869,6 +4185,7 @@
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3891,6 +4208,7 @@
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3919,8 +4237,13 @@
           <t xml:space="preserve">sea - to: 0.283  |  sea - pie: 0.238  |  sea - day: 0.342  |  bed - to: 0.303  |  bed - pie: 0.219  |  bed - day: 0.325  |  </t>
         </is>
       </c>
-      <c r="G139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
       <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3943,6 +4266,7 @@
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3965,6 +4289,7 @@
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3987,6 +4312,7 @@
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4015,8 +4341,13 @@
           <t xml:space="preserve">sandwich - meat: 0.597  |  house - meat: 0.274  |  </t>
         </is>
       </c>
-      <c r="G143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>meat</t>
+        </is>
+      </c>
       <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4039,6 +4370,7 @@
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4067,8 +4399,13 @@
           <t xml:space="preserve">house - of: 0.358  |  golf - of: 0.226  |  </t>
         </is>
       </c>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
       <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4097,8 +4434,13 @@
           <t xml:space="preserve">cross - ing: 0.16  |  rain - ing: 0.162  |  </t>
         </is>
       </c>
-      <c r="G146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>ing</t>
+        </is>
+      </c>
       <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4121,6 +4463,7 @@
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4149,8 +4492,13 @@
           <t xml:space="preserve">rain - black: 0.267  |  tie - black: 0.382  |  </t>
         </is>
       </c>
-      <c r="G148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
       <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4173,6 +4521,7 @@
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4195,6 +4544,7 @@
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4223,8 +4573,13 @@
           <t xml:space="preserve">paint - body: 0.319  |  paint - ed: 0.108  |  paint - to: 0.283  |  paint - body: 0.319  |  paint - get: 0.35  |  hair - body: 0.507  |  hair - ed: 0.121  |  hair - to: 0.277  |  hair - body: 0.507  |  hair - get: 0.362  |  </t>
         </is>
       </c>
-      <c r="G151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>body</t>
+        </is>
+      </c>
       <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4236,7 +4591,8 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr">
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr">
         <is>
           <t>9.33%</t>
         </is>
